--- a/SQL/250807/JOIN 예시.xlsx
+++ b/SQL/250807/JOIN 예시.xlsx
@@ -9,17 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="9765" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="9765" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+  <x:si>
+    <x:t>NaN (없음)</x:t>
+  </x:si>
   <x:si>
     <x:t>학번</x:t>
   </x:si>
@@ -27,15 +31,36 @@
     <x:t>영어</x:t>
   </x:si>
   <x:si>
+    <x:t>items</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ranking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>order_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-&gt;address_id 공통 값! 이를 기준으로 매치되지 않는 값을 확인할 수 있음!</x:t>
+  </x:si>
+  <x:si>
     <x:t>수학</x:t>
   </x:si>
   <x:si>
+    <x:t>order_id</x:t>
+  </x:si>
+  <x:si>
     <x:t>기준으로!</x:t>
   </x:si>
   <x:si>
+    <x:t>OUTTER JOIN</x:t>
+  </x:si>
+  <x:si>
     <x:t>ON</x:t>
   </x:si>
   <x:si>
+    <x:t>Order table</x:t>
+  </x:si>
+  <x:si>
     <x:t>-&gt; 학번을 두번쓰고 있음!</x:t>
   </x:si>
   <x:si>
@@ -48,14 +73,62 @@
     <x:t>.</x:t>
   </x:si>
   <x:si>
+    <x:t>RIGHT JOIN</x:t>
+  </x:si>
+  <x:si>
     <x:t>-&gt; 학번을 기준(ON)으로 하나의  테이블로 만듦</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smith</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>customer_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>customer_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-&gt; item_code를 FOREIGN KEY로 사용!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Customer table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>left의 값이 죽음-&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-&gt; right의 값이 죽음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INNER JOIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OUTER JOIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIGHT 기준!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEFT 기준!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(LEFT=default) OUTTER JOIN</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
+  <x:fonts count="7">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -86,16 +159,28 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffff00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -110,13 +195,55 @@
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="hair">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="hair">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="hair">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="hair">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="hair">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="hair">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="hair">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="hair">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -136,6 +263,67 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -543,6 +731,168 @@
 </x:styleSheet>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="4619625"/>
+          <a:ext cx="4058216" cy="1209843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5439341" y="4586283"/>
+          <a:ext cx="3629531" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="11820525"/>
+          <a:ext cx="6182588" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10344150" y="11820525"/>
+          <a:ext cx="7830642" cy="571579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
@@ -856,34 +1206,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:G21"/>
+  <x:dimension ref="B2:I31"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J19" activeCellId="0" sqref="J19:J19"/>
+    <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J35" activeCellId="0" sqref="J35:J35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:sheetData>
     <x:row r="2" spans="2:5">
       <x:c r="B2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:6">
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:6">
@@ -958,22 +1308,22 @@
     </x:row>
     <x:row r="10" spans="2:7">
       <x:c r="B10" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:7">
@@ -984,7 +1334,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E11">
         <x:v>1233</x:v>
@@ -993,7 +1343,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
@@ -1076,21 +1426,454 @@
     </x:row>
     <x:row r="19" spans="4:4">
       <x:c r="D19" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="4:4">
       <x:c r="D20" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="4:4">
       <x:c r="D21" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="3:9">
+      <x:c r="C22" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I22" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="3:3">
+      <x:c r="C23" s="3"/>
+    </x:row>
+    <x:row r="31" spans="3:3">
+      <x:c r="C31" s="1" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <x:drawing r:id="rId1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="B2:L27"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G29" activeCellId="1" sqref="G31:G31 G29:G29"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="30" customHeight="1"/>
+  <x:cols>
+    <x:col min="1" max="1" width="2.875" customWidth="1"/>
+    <x:col min="2" max="4" width="15.77734375" customWidth="1"/>
+    <x:col min="5" max="5" width="2.625" customWidth="1"/>
+    <x:col min="6" max="16384" width="15.77734375" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="2:2" customHeight="1">
+      <x:c r="B2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:6" customHeight="1">
+      <x:c r="B4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:9" customHeight="1">
+      <x:c r="B5" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:9" customHeight="1">
+      <x:c r="B6" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F6" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G6" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H6" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I6" s="4">
+        <x:v>45876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="2:9" customHeight="1">
+      <x:c r="B7" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C7" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F7" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G7" s="2">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="H7" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I7" s="4">
+        <x:v>45870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:9" customHeight="1">
+      <x:c r="B8" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="2">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="H8" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I8" s="4">
+        <x:v>45863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="6:6" customHeight="1">
+      <x:c r="F10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="6:11" customHeight="1">
+      <x:c r="F11" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="6:11" customHeight="1">
+      <x:c r="F12" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G12" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H12" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I12" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="J12" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K12" s="4">
+        <x:v>45876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="6:11" customHeight="1">
+      <x:c r="F13" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G13" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H13" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I13" s="2">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="J13" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K13" s="4">
+        <x:v>45863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="6:8" customHeight="1">
+      <x:c r="F14" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G14" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H14" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="6:6" customHeight="1">
+      <x:c r="F15" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="6:6" customHeight="1">
+      <x:c r="F16" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="6:11" customHeight="1">
+      <x:c r="F17" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J17" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K17" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="6:11" customHeight="1">
+      <x:c r="F18" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G18" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H18" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I18" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="J18" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K18" s="4">
+        <x:v>45876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="6:11" customHeight="1">
+      <x:c r="F19" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G19" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I19" s="2">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="J19" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K19" s="4">
+        <x:v>45863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="6:12" customHeight="1">
+      <x:c r="F20" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G20" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H20" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I20" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K20" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L20" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="6:6" customHeight="1">
+      <x:c r="F22" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="6:9" customHeight="1">
+      <x:c r="F23" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I23" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="6:12" customHeight="1">
+      <x:c r="F24" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G24" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H24" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J24" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K24" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L24" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="6:12" customHeight="1">
+      <x:c r="F25" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G25" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H25" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I25" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J25" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K25" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L25" s="4">
+        <x:v>45876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="4:12" customHeight="1">
+      <x:c r="D26" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G26" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I26" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J26" s="2">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="K26" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L26" s="4">
+        <x:v>45870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="6:12" customHeight="1">
+      <x:c r="F27" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G27" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H27" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I27" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J27" s="2">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="K27" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L27" s="4">
+        <x:v>45863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="6:6" customHeight="1">
+      <x:c r="F31" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="6:6" customHeight="1">
+      <x:c r="F34" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <x:drawing r:id="rId1"/>
 </x:worksheet>
 </file>